--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614328.2804713602</v>
+        <v>611889.8905129438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11765027.90309084</v>
+        <v>11765027.90309083</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.35548709691255</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.09405498756036</v>
       </c>
       <c r="W2" t="n">
-        <v>185.8851108842663</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>254.5167172826895</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453327</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.48923120238945</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>160.9821699216168</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787545</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>39.36551728471356</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.64230657388322</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>24.14763241892771</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.0977753814025</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>112.9454894324102</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833921</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>277.4607323328415</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.37259901119255</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.211420938037</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223849</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.43396264657</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.7716426311333</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>29.249233057517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>144.7193406055811</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>118.8520688186515</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>222.8161206669551</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>32.4720786658923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880053</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3122.026782331303</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2868.49630560514</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2537.433418261569</v>
+        <v>2988.141956006682</v>
       </c>
       <c r="W2" t="n">
-        <v>2349.670679994633</v>
+        <v>2635.373300736568</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1907.608455964867</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1907.608455964867</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1685.841840534393</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1396.738973660037</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.05448545415</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>852.637315417189</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792694</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2721.644013346617</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.9977502341333</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1695.845515142881</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1695.845515142881</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1695.845515142881</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.42834510592</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>1178.438794207903</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.646215064373</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.975386180639</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.012869240227</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.747170633477</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>958.9589180352325</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>547.973013245625</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>132.9005630906215</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.2215399677106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1813.208195126462</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1813.208195126462</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1524.105328252106</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1269.420840046219</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>980.003670009258</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>752.0141191112407</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>531.2215399677106</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608047</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251933</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>301.0525042748308</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>791.784837118582</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1383.80319137071</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>2005.899154770046</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.1352037073464</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>614.1990207794395</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>464.0823813671037</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>464.0823813671037</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="F13" t="n">
-        <v>464.0823813671037</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G13" t="n">
-        <v>296.8681865416826</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5230,19 +5230,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.667456821981</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.982968616094</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.565798579134</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.576247681116</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.7836685375861</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>383.4415877881677</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2233.736227705813</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.661001050011</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>650.3841300523919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>502.4710364699988</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>355.5810889720884</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958028</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.709803752141</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715181</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171635</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736334</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1944.661001050011</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>111.5624830427076</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.6582034825745</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.61145443660462</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>50.29152613729343</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537662</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>20.24256885391689</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582747</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.81301072096144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529514</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.68610972170717</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>46.67206947361737</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>63.36835372228904</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950887.9324260578</v>
+        <v>950887.9324260574</v>
       </c>
     </row>
     <row r="3">
@@ -26320,10 +26320,10 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
@@ -26341,19 +26341,19 @@
         <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189852</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504153</v>
+        <v>11452.26311504134</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832908</v>
+        <v>81924.27863832927</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52178.53358980848</v>
+        <v>52178.53358980841</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12990.33152560508</v>
@@ -26436,7 +26436,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,7 +26445,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26454,7 +26454,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1113381.59862847</v>
+        <v>-1113556.824946879</v>
       </c>
       <c r="C6" t="n">
-        <v>210403.0454525664</v>
+        <v>210403.0454525662</v>
       </c>
       <c r="D6" t="n">
-        <v>210403.0454525666</v>
+        <v>210403.0454525665</v>
       </c>
       <c r="E6" t="n">
-        <v>-25472.63303941325</v>
+        <v>-25518.53803497928</v>
       </c>
       <c r="F6" t="n">
-        <v>278001.6427592239</v>
+        <v>277966.9048337885</v>
       </c>
       <c r="G6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488299</v>
       </c>
       <c r="H6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="I6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="J6" t="n">
-        <v>71922.70347698806</v>
+        <v>71887.96555155242</v>
       </c>
       <c r="K6" t="n">
-        <v>289453.9058742654</v>
+        <v>289419.1679488297</v>
       </c>
       <c r="L6" t="n">
-        <v>289453.9058742654</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="M6" t="n">
-        <v>207529.6272359365</v>
+        <v>207494.8893105005</v>
       </c>
       <c r="N6" t="n">
-        <v>286376.8885185606</v>
+        <v>286342.1505931252</v>
       </c>
       <c r="O6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488299</v>
       </c>
       <c r="P6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488299</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288148</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237142</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237142</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237142</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>163.3558578331467</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>115.2143833957796</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>69.44292146765787</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>208.7489307568522</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729908</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>180.1834319914556</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>250.4953367499448</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>270.4601319683928</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.1431933360105</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>76.82353589903165</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>348.185763266026</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,10 +33676,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>210.344324291667</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>174.4792836591384</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,10 +37324,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
